--- a/content/char/char.xlsx
+++ b/content/char/char.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1456,45 +1456,45 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>埃洛伊</v>
+        <v>夜兰</v>
       </c>
       <c r="B47" t="str">
-        <v>aloy</v>
+        <v>yelan</v>
       </c>
       <c r="C47">
-        <v>848.45</v>
+        <v>1124.9</v>
       </c>
       <c r="D47">
-        <v>52.65</v>
+        <v>42.659</v>
       </c>
       <c r="E47">
-        <v>18.21</v>
+        <v>18.992</v>
       </c>
       <c r="F47" t="str">
         <v>弓</v>
       </c>
       <c r="G47" t="str">
-        <v>冰</v>
+        <v>水</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>申鹤</v>
+        <v>埃洛伊</v>
       </c>
       <c r="B48" t="str">
-        <v>shenhe</v>
+        <v>aloy</v>
       </c>
       <c r="C48">
-        <v>1011.5</v>
+        <v>848.45</v>
       </c>
       <c r="D48">
-        <v>64.616</v>
+        <v>52.65</v>
       </c>
       <c r="E48">
-        <v>23.647</v>
+        <v>18.21</v>
       </c>
       <c r="F48" t="str">
-        <v>长枪</v>
+        <v>弓</v>
       </c>
       <c r="G48" t="str">
         <v>冰</v>
@@ -1502,53 +1502,99 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>云堇</v>
+        <v>申鹤</v>
       </c>
       <c r="B49" t="str">
-        <v>yunjin</v>
+        <v>shenhe</v>
       </c>
       <c r="C49">
-        <v>893.56</v>
+        <v>1011.5</v>
       </c>
       <c r="D49">
-        <v>61.574</v>
+        <v>64.616</v>
       </c>
       <c r="E49">
-        <v>16.027</v>
+        <v>23.647</v>
       </c>
       <c r="F49" t="str">
         <v>长枪</v>
       </c>
       <c r="G49" t="str">
-        <v>岩</v>
+        <v>冰</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
+        <v>云堇</v>
+      </c>
+      <c r="B50" t="str">
+        <v>yunjin</v>
+      </c>
+      <c r="C50">
+        <v>893.56</v>
+      </c>
+      <c r="D50">
+        <v>61.574</v>
+      </c>
+      <c r="E50">
+        <v>16.027</v>
+      </c>
+      <c r="F50" t="str">
+        <v>长枪</v>
+      </c>
+      <c r="G50" t="str">
+        <v>岩</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>久岐忍</v>
+      </c>
+      <c r="B51" t="str">
+        <v>shinobu</v>
+      </c>
+      <c r="C51">
+        <v>1030.3</v>
+      </c>
+      <c r="D51">
+        <v>62.947</v>
+      </c>
+      <c r="E51">
+        <v>17.808</v>
+      </c>
+      <c r="F51" t="str">
+        <v>单手剑</v>
+      </c>
+      <c r="G51" t="str">
+        <v>雷</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
         <v>神里绫人</v>
       </c>
-      <c r="B50" t="str">
+      <c r="B52" t="str">
         <v>ayato</v>
       </c>
-      <c r="C50">
+      <c r="C52">
         <v>1067.7</v>
       </c>
-      <c r="D50">
+      <c r="D52">
         <v>59.83</v>
       </c>
-      <c r="E50">
+      <c r="E52">
         <v>23.275</v>
       </c>
-      <c r="F50" t="str">
+      <c r="F52" t="str">
         <v>单手剑</v>
       </c>
-      <c r="G50" t="str">
+      <c r="G52" t="str">
         <v>水</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G50"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G52"/>
   </ignoredErrors>
 </worksheet>
 </file>